--- a/Extinction1.xlsx
+++ b/Extinction1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20338"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faissal/My Drive/Research/2022 – Oxford Tan Lab/Test4_1129/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhuang\Desktop\TJU\Project\Fear leaning task\Paradigm\Test3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCEDDCA-EBF3-B944-8E53-6381C41BBBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DD4412-1CA4-4582-AF79-87A87F55C6A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="18000" xr2:uid="{840F1883-2516-9F4C-8486-14A69ACDE5E3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8532" xr2:uid="{840F1883-2516-9F4C-8486-14A69ACDE5E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,10 @@
     <t>ExtName</t>
   </si>
   <si>
-    <t>Extinction/CS+1.BMP</t>
+    <t>Extinction\CS+1.BMP</t>
   </si>
   <si>
-    <t>Extinction/CS-1.BMP</t>
+    <t>Extinction\CS-1.BMP</t>
   </si>
 </sst>
 </file>
@@ -97,7 +97,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -412,15 +412,15 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A20" sqref="A20:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -428,7 +428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -436,7 +436,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -444,7 +444,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -452,7 +452,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -460,7 +460,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -468,7 +468,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -476,7 +476,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -484,7 +484,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -492,7 +492,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -500,7 +500,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
@@ -508,7 +508,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
@@ -516,7 +516,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
@@ -524,7 +524,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -532,7 +532,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
@@ -540,7 +540,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
@@ -548,7 +548,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
@@ -556,7 +556,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
@@ -564,7 +564,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
@@ -572,7 +572,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
@@ -580,7 +580,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
@@ -594,15 +594,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DCC15C826F9CD04C984C1E59D79D0BF3" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4323ffbe69f4456b442358682c62cfba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="64b0b0ad-49a7-4b34-8eba-9a240439451d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="94ec3c4b7e8ae219eb184f3ca94c286d" ns2:_="">
     <xsd:import namespace="64b0b0ad-49a7-4b34-8eba-9a240439451d"/>
@@ -786,6 +777,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -793,14 +793,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C85C343-499D-4BC7-9B8F-D9E582CC8DDD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67E7708E-A211-4EE7-B9CF-C271F86B84FB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -818,6 +810,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C85C343-499D-4BC7-9B8F-D9E582CC8DDD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58D0AC84-39CA-4E8F-AEC8-2A8899D713BA}">
   <ds:schemaRefs>

--- a/Extinction1.xlsx
+++ b/Extinction1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faissal/My Drive/Research/2022 – Oxford Tan Lab/Test4_1129/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faissal/My Drive/Research/2022 – Oxford Tan Lab/2022_11_TCET_Task/2022_11_TCET_Faissal_Test4_1129/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCEDDCA-EBF3-B944-8E53-6381C41BBBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113F1675-DBBC-1145-82B8-8CEB0887BC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="18000" xr2:uid="{840F1883-2516-9F4C-8486-14A69ACDE5E3}"/>
+    <workbookView xWindow="7320" yWindow="0" windowWidth="21480" windowHeight="18000" xr2:uid="{840F1883-2516-9F4C-8486-14A69ACDE5E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="5">
   <si>
     <t>TrgCol</t>
   </si>
@@ -33,17 +33,20 @@
     <t>ExtName</t>
   </si>
   <si>
-    <t>Extinction/CS+1.BMP</t>
+    <t>Stimuli/CS+3.BMP</t>
   </si>
   <si>
-    <t>Extinction/CS-1.BMP</t>
+    <t>Stimuli/CS+1.BMP</t>
+  </si>
+  <si>
+    <t>Stimuli/CS+4.BMP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -60,22 +63,30 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,11 +101,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -113,7 +125,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -401,7 +413,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -409,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41A79DE-3AF0-924B-8021-4940230CA357}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -428,80 +440,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="3">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="3">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="3">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="3">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="3">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="3">
@@ -512,7 +524,7 @@
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>0.4</v>
       </c>
     </row>
@@ -520,7 +532,7 @@
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>0.4</v>
       </c>
     </row>
@@ -528,7 +540,7 @@
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>0.4</v>
       </c>
     </row>
@@ -536,7 +548,7 @@
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>0.4</v>
       </c>
     </row>
@@ -544,7 +556,7 @@
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>0.4</v>
       </c>
     </row>
@@ -552,7 +564,7 @@
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>0.4</v>
       </c>
     </row>
@@ -560,7 +572,7 @@
       <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>0.4</v>
       </c>
     </row>
@@ -568,7 +580,7 @@
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>0.4</v>
       </c>
     </row>
@@ -576,7 +588,7 @@
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>0.4</v>
       </c>
     </row>
@@ -584,7 +596,87 @@
       <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="3">
         <v>0.4</v>
       </c>
     </row>
@@ -594,15 +686,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DCC15C826F9CD04C984C1E59D79D0BF3" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4323ffbe69f4456b442358682c62cfba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="64b0b0ad-49a7-4b34-8eba-9a240439451d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="94ec3c4b7e8ae219eb184f3ca94c286d" ns2:_="">
     <xsd:import namespace="64b0b0ad-49a7-4b34-8eba-9a240439451d"/>
@@ -786,6 +869,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -793,14 +885,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C85C343-499D-4BC7-9B8F-D9E582CC8DDD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67E7708E-A211-4EE7-B9CF-C271F86B84FB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -818,6 +902,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C85C343-499D-4BC7-9B8F-D9E582CC8DDD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58D0AC84-39CA-4E8F-AEC8-2A8899D713BA}">
   <ds:schemaRefs>

--- a/Extinction1.xlsx
+++ b/Extinction1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faissal/My Drive/Research/2022 – Oxford Tan Lab/2022_11_TCET_Task/2022_11_TCET_Faissal_Test4_1129/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faissal/My Drive/Research/2022 – Oxford Tan Lab/2023 – Study 1/2022_11_TCET_Task/V3_3Faces/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113F1675-DBBC-1145-82B8-8CEB0887BC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D97B3A9-3F52-204C-A047-E8478F0A9BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="0" windowWidth="21480" windowHeight="18000" xr2:uid="{840F1883-2516-9F4C-8486-14A69ACDE5E3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{840F1883-2516-9F4C-8486-14A69ACDE5E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="5">
   <si>
     <t>TrgCol</t>
   </si>
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41A79DE-3AF0-924B-8021-4940230CA357}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -520,20 +520,20 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.4</v>
+    <row r="12" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -600,35 +600,35 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="2">
         <v>0.4</v>
       </c>
     </row>
@@ -677,6 +677,54 @@
         <v>4</v>
       </c>
       <c r="B31" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="3">
         <v>0.4</v>
       </c>
     </row>
@@ -686,6 +734,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DCC15C826F9CD04C984C1E59D79D0BF3" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4323ffbe69f4456b442358682c62cfba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="64b0b0ad-49a7-4b34-8eba-9a240439451d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="94ec3c4b7e8ae219eb184f3ca94c286d" ns2:_="">
     <xsd:import namespace="64b0b0ad-49a7-4b34-8eba-9a240439451d"/>
@@ -869,15 +926,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -885,6 +933,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C85C343-499D-4BC7-9B8F-D9E582CC8DDD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67E7708E-A211-4EE7-B9CF-C271F86B84FB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -902,14 +958,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C85C343-499D-4BC7-9B8F-D9E582CC8DDD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58D0AC84-39CA-4E8F-AEC8-2A8899D713BA}">
   <ds:schemaRefs>

--- a/Extinction1.xlsx
+++ b/Extinction1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faissal/My Drive/Research/2022 – Oxford Tan Lab/2023 – Study 1/2022_11_TCET_Task/V3_3Faces/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faissal/My Drive/Research/2022 – Oxford Tan Lab/2022_11_TCET_Task/2022_11_TCET_Faissal_Test4_1129/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D97B3A9-3F52-204C-A047-E8478F0A9BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113F1675-DBBC-1145-82B8-8CEB0887BC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{840F1883-2516-9F4C-8486-14A69ACDE5E3}"/>
+    <workbookView xWindow="7320" yWindow="0" windowWidth="21480" windowHeight="18000" xr2:uid="{840F1883-2516-9F4C-8486-14A69ACDE5E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="5">
   <si>
     <t>TrgCol</t>
   </si>
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41A79DE-3AF0-924B-8021-4940230CA357}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -520,20 +520,20 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="3">
-        <v>-0.1</v>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.4</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -600,35 +600,35 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="2">
+    <row r="22" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="3">
         <v>0.4</v>
       </c>
     </row>
@@ -677,54 +677,6 @@
         <v>4</v>
       </c>
       <c r="B31" s="3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="3">
         <v>0.4</v>
       </c>
     </row>
@@ -734,15 +686,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DCC15C826F9CD04C984C1E59D79D0BF3" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4323ffbe69f4456b442358682c62cfba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="64b0b0ad-49a7-4b34-8eba-9a240439451d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="94ec3c4b7e8ae219eb184f3ca94c286d" ns2:_="">
     <xsd:import namespace="64b0b0ad-49a7-4b34-8eba-9a240439451d"/>
@@ -926,6 +869,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -933,14 +885,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C85C343-499D-4BC7-9B8F-D9E582CC8DDD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67E7708E-A211-4EE7-B9CF-C271F86B84FB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -958,6 +902,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C85C343-499D-4BC7-9B8F-D9E582CC8DDD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58D0AC84-39CA-4E8F-AEC8-2A8899D713BA}">
   <ds:schemaRefs>
